--- a/SVM/BOW/5folds/4/predict.xlsx
+++ b/SVM/BOW/5folds/4/predict.xlsx
@@ -8314,7 +8314,7 @@
         <v>1</v>
       </c>
       <c r="D313">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -13914,7 +13914,7 @@
         <v>1</v>
       </c>
       <c r="D713">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="714" spans="1:4">
@@ -14138,7 +14138,7 @@
         <v>1</v>
       </c>
       <c r="D729">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="730" spans="1:4">
@@ -14180,7 +14180,7 @@
         <v>0</v>
       </c>
       <c r="D732">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="733" spans="1:4">
@@ -14376,7 +14376,7 @@
         <v>0</v>
       </c>
       <c r="D746">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="747" spans="1:4">
@@ -14488,7 +14488,7 @@
         <v>0</v>
       </c>
       <c r="D754">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="755" spans="1:4">
@@ -14586,7 +14586,7 @@
         <v>1</v>
       </c>
       <c r="D761">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="762" spans="1:4">
@@ -15230,7 +15230,7 @@
         <v>1</v>
       </c>
       <c r="D807">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="808" spans="1:4">
@@ -15804,7 +15804,7 @@
         <v>1</v>
       </c>
       <c r="D848">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="849" spans="1:4">
@@ -16028,7 +16028,7 @@
         <v>1</v>
       </c>
       <c r="D864">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="865" spans="1:4">
@@ -16056,7 +16056,7 @@
         <v>0</v>
       </c>
       <c r="D866">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="867" spans="1:4">
@@ -16378,7 +16378,7 @@
         <v>0</v>
       </c>
       <c r="D889">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="890" spans="1:4">
@@ -17400,7 +17400,7 @@
         <v>0</v>
       </c>
       <c r="D962">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="963" spans="1:4">
@@ -17596,7 +17596,7 @@
         <v>1</v>
       </c>
       <c r="D976">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="977" spans="1:4">
@@ -17792,7 +17792,7 @@
         <v>1</v>
       </c>
       <c r="D990">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="991" spans="1:4">
@@ -17904,7 +17904,7 @@
         <v>1</v>
       </c>
       <c r="D998">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="999" spans="1:4">
@@ -18198,7 +18198,7 @@
         <v>0</v>
       </c>
       <c r="D1019">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1020" spans="1:4">
@@ -18394,7 +18394,7 @@
         <v>1</v>
       </c>
       <c r="D1033">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1034" spans="1:4">
@@ -18618,7 +18618,7 @@
         <v>0</v>
       </c>
       <c r="D1049">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1050" spans="1:4">
@@ -18688,7 +18688,7 @@
         <v>1</v>
       </c>
       <c r="D1054">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1055" spans="1:4">
@@ -18772,7 +18772,7 @@
         <v>1</v>
       </c>
       <c r="D1060">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1061" spans="1:4">
@@ -18786,7 +18786,7 @@
         <v>1</v>
       </c>
       <c r="D1061">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1062" spans="1:4">
@@ -18814,7 +18814,7 @@
         <v>0</v>
       </c>
       <c r="D1063">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1064" spans="1:4">
@@ -18870,7 +18870,7 @@
         <v>1</v>
       </c>
       <c r="D1067">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1068" spans="1:4">
@@ -19220,7 +19220,7 @@
         <v>1</v>
       </c>
       <c r="D1092">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1093" spans="1:4">
@@ -19360,7 +19360,7 @@
         <v>1</v>
       </c>
       <c r="D1102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1103" spans="1:4">
@@ -19542,7 +19542,7 @@
         <v>0</v>
       </c>
       <c r="D1115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1116" spans="1:4">
@@ -19878,7 +19878,7 @@
         <v>0</v>
       </c>
       <c r="D1139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1140" spans="1:4">
@@ -20522,7 +20522,7 @@
         <v>0</v>
       </c>
       <c r="D1185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1186" spans="1:4">
@@ -20718,7 +20718,7 @@
         <v>0</v>
       </c>
       <c r="D1199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1200" spans="1:4">
@@ -21488,7 +21488,7 @@
         <v>0</v>
       </c>
       <c r="D1254">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1255" spans="1:4">
@@ -21908,7 +21908,7 @@
         <v>1</v>
       </c>
       <c r="D1284">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1285" spans="1:4">
@@ -22300,7 +22300,7 @@
         <v>1</v>
       </c>
       <c r="D1312">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1313" spans="1:4">
@@ -22468,7 +22468,7 @@
         <v>1</v>
       </c>
       <c r="D1324">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1325" spans="1:4">
@@ -22664,7 +22664,7 @@
         <v>1</v>
       </c>
       <c r="D1338">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1339" spans="1:4">
@@ -23154,7 +23154,7 @@
         <v>1</v>
       </c>
       <c r="D1373">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1374" spans="1:4">
@@ -23420,7 +23420,7 @@
         <v>0</v>
       </c>
       <c r="D1392">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1393" spans="1:4">
@@ -24092,7 +24092,7 @@
         <v>0</v>
       </c>
       <c r="D1440">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1441" spans="1:4">
@@ -24106,7 +24106,7 @@
         <v>0</v>
       </c>
       <c r="D1441">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1442" spans="1:4">
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="D1447">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1448" spans="1:4">
@@ -24246,7 +24246,7 @@
         <v>1</v>
       </c>
       <c r="D1451">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1452" spans="1:4">
@@ -24582,7 +24582,7 @@
         <v>1</v>
       </c>
       <c r="D1475">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1476" spans="1:4">
@@ -25002,7 +25002,7 @@
         <v>1</v>
       </c>
       <c r="D1505">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1506" spans="1:4">
@@ -25968,7 +25968,7 @@
         <v>0</v>
       </c>
       <c r="D1574">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1575" spans="1:4">
@@ -26178,7 +26178,7 @@
         <v>1</v>
       </c>
       <c r="D1589">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1590" spans="1:4">
@@ -26766,7 +26766,7 @@
         <v>1</v>
       </c>
       <c r="D1631">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1632" spans="1:4">
@@ -26808,7 +26808,7 @@
         <v>0</v>
       </c>
       <c r="D1634">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1635" spans="1:4">
@@ -26976,7 +26976,7 @@
         <v>1</v>
       </c>
       <c r="D1646">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1647" spans="1:4">
@@ -27130,7 +27130,7 @@
         <v>0</v>
       </c>
       <c r="D1657">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1658" spans="1:4">
@@ -27480,7 +27480,7 @@
         <v>0</v>
       </c>
       <c r="D1682">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1683" spans="1:4">
@@ -28558,7 +28558,7 @@
         <v>1</v>
       </c>
       <c r="D1759">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1760" spans="1:4">
@@ -28978,7 +28978,7 @@
         <v>0</v>
       </c>
       <c r="D1789">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1790" spans="1:4">
@@ -29076,7 +29076,7 @@
         <v>1</v>
       </c>
       <c r="D1796">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1797" spans="1:4">
@@ -29216,7 +29216,7 @@
         <v>1</v>
       </c>
       <c r="D1806">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1807" spans="1:4">
@@ -29258,7 +29258,7 @@
         <v>0</v>
       </c>
       <c r="D1809">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1810" spans="1:4">
@@ -29370,7 +29370,7 @@
         <v>1</v>
       </c>
       <c r="D1817">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1818" spans="1:4">
@@ -30042,7 +30042,7 @@
         <v>0</v>
       </c>
       <c r="D1865">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1866" spans="1:4">
@@ -30546,7 +30546,7 @@
         <v>1</v>
       </c>
       <c r="D1901">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1902" spans="1:4">
@@ -31302,7 +31302,7 @@
         <v>0</v>
       </c>
       <c r="D1955">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1956" spans="1:4">
@@ -31554,7 +31554,7 @@
         <v>1</v>
       </c>
       <c r="D1973">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1974" spans="1:4">
@@ -31610,7 +31610,7 @@
         <v>0</v>
       </c>
       <c r="D1977">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1978" spans="1:4">
@@ -31750,7 +31750,7 @@
         <v>1</v>
       </c>
       <c r="D1987">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1988" spans="1:4">
@@ -31792,7 +31792,7 @@
         <v>1</v>
       </c>
       <c r="D1990">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1991" spans="1:4">
@@ -31974,7 +31974,7 @@
         <v>1</v>
       </c>
       <c r="D2003">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2004" spans="1:4">
@@ -33416,7 +33416,7 @@
         <v>0</v>
       </c>
       <c r="D2106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2107" spans="1:4">
@@ -33598,7 +33598,7 @@
         <v>0</v>
       </c>
       <c r="D2119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2120" spans="1:4">
@@ -33612,7 +33612,7 @@
         <v>0</v>
       </c>
       <c r="D2120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2121" spans="1:4">
@@ -33864,7 +33864,7 @@
         <v>0</v>
       </c>
       <c r="D2138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2139" spans="1:4">
@@ -33920,7 +33920,7 @@
         <v>1</v>
       </c>
       <c r="D2142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2143" spans="1:4">
@@ -34410,7 +34410,7 @@
         <v>1</v>
       </c>
       <c r="D2177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2178" spans="1:4">
@@ -34508,7 +34508,7 @@
         <v>0</v>
       </c>
       <c r="D2184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2185" spans="1:4">
@@ -34564,7 +34564,7 @@
         <v>0</v>
       </c>
       <c r="D2188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2189" spans="1:4">
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="D2226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2227" spans="1:4">
@@ -35670,7 +35670,7 @@
         <v>0</v>
       </c>
       <c r="D2267">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2268" spans="1:4">
@@ -35852,7 +35852,7 @@
         <v>1</v>
       </c>
       <c r="D2280">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2281" spans="1:4">
@@ -35936,7 +35936,7 @@
         <v>0</v>
       </c>
       <c r="D2286">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2287" spans="1:4">
@@ -36160,7 +36160,7 @@
         <v>0</v>
       </c>
       <c r="D2302">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2303" spans="1:4">
@@ -36328,7 +36328,7 @@
         <v>0</v>
       </c>
       <c r="D2314">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2315" spans="1:4">
@@ -36412,7 +36412,7 @@
         <v>1</v>
       </c>
       <c r="D2320">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2321" spans="1:4">
@@ -36440,7 +36440,7 @@
         <v>0</v>
       </c>
       <c r="D2322">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2323" spans="1:4">
@@ -36496,7 +36496,7 @@
         <v>0</v>
       </c>
       <c r="D2326">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2327" spans="1:4">
@@ -36510,7 +36510,7 @@
         <v>1</v>
       </c>
       <c r="D2327">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2328" spans="1:4">
@@ -36664,7 +36664,7 @@
         <v>0</v>
       </c>
       <c r="D2338">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2339" spans="1:4">
@@ -37266,7 +37266,7 @@
         <v>0</v>
       </c>
       <c r="D2381">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2382" spans="1:4">
